--- a/public/cohort/fileExcel/xlsxUIT/OPEN/KCKV_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/KCKV_OPEN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -880,15 +880,35 @@
     <t>M</t>
   </si>
   <si>
+    <t xml:space="preserve">Culturele Activiteit 1 (CA1) = beoordeling kunstdossier periode 1
+</t>
+  </si>
+  <si>
+    <t>K2/K3</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
+    <t xml:space="preserve">Oriëntatie op leren en werken + CA 2 = beoordeling kunstdossier periode 2 </t>
+  </si>
+  <si>
+    <t>K1/K2</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
+    <t xml:space="preserve">Culturele Activiteit 3(CA3)  = beoordeling kunstdossier periode 3
+</t>
+  </si>
+  <si>
     <t>eindJaar</t>
   </si>
   <si>
+    <t>Culturele Activiteit 4 (CA4) + reflectie = afronding kunstdossier</t>
+  </si>
+  <si>
     <t>vandaag</t>
   </si>
   <si>
@@ -902,6 +922,9 @@
   </si>
   <si>
     <t>groep</t>
+  </si>
+  <si>
+    <t>Beoordeling O/V/G per periode afgeronde activiteiten zoals vermeld in het PTA. Het kunstdossier moet met een voldoende worden afgesloten.</t>
   </si>
   <si>
     <t>mavo?</t>
@@ -911,13 +934,7 @@
 </t>
   </si>
   <si>
-    <t>K2/K3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OriÃ«ntatie op leren en werken </t>
-  </si>
-  <si>
-    <t>K1/K2</t>
+    <t xml:space="preserve">Oriëntatie op leren en werken </t>
   </si>
   <si>
     <t xml:space="preserve">Culturele Activiteit 2 (CA2) + verwerking 
@@ -2308,26 +2325,36 @@
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1113</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="45"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="45">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="45"/>
       <c r="M6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="46">
+        <v>1</v>
+      </c>
       <c r="O6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2391,31 +2418,41 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>1114</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="45"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="45">
+        <v>1</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="45"/>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="46">
+        <v>1</v>
+      </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>67</v>
+      </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2479,31 +2516,41 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>262</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1115</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="45"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="45">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="45"/>
       <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="46">
+        <v>1</v>
+      </c>
       <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2567,32 +2614,42 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1116</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="45"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="45">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="45"/>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="46">
+        <v>1</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2656,11 +2713,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602384259</v>
+        <v>44385.633449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2745,7 +2802,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2834,7 +2891,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2857,7 +2914,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2896,13 +2953,15 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>2</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>77</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -2926,7 +2985,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4552,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -4569,10 +4628,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -4637,7 +4696,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4650,7 +4709,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -4667,10 +4726,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -4735,7 +4794,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>169</v>
@@ -4748,7 +4807,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4765,10 +4824,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -4833,7 +4892,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4847,7 +4906,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -4864,10 +4923,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -4932,11 +4991,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602384259</v>
+        <v>44385.633449074</v>
       </c>
       <c r="D10" s="2">
         <v>554</v>
@@ -4946,7 +5005,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -4963,10 +5022,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -5031,7 +5090,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5045,7 +5104,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -5062,10 +5121,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -5130,7 +5189,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5153,7 +5212,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5192,7 +5251,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5222,7 +5281,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6470,9 +6529,7 @@
       <c r="C37" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="2">
-        <v>668</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KCKV leerlaag M5 (schooljaar 2022 - 2021)</v>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/KCKV_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/KCKV_OPEN.xlsx
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633449074</v>
+        <v>44387.76619213</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633449074</v>
+        <v>44387.76619213</v>
       </c>
       <c r="D10" s="2">
         <v>554</v>
